--- a/RiskRegister.xlsx
+++ b/RiskRegister.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71DC933D-9792-904B-805B-9877FBDF03BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{12E8FACC-0D17-496D-981A-81FCD504D1D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500"/>
+    <workbookView xWindow="-25693" yWindow="-93" windowWidth="25786" windowHeight="14586" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Инструкции" sheetId="3" r:id="rId1"/>
@@ -17,26 +17,21 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Инструкции!$A$24:$B$34</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Реестр рисков'!$B$4:$D$4</definedName>
+    <definedName name="as">[1]DropDown_Elements!$A$2:$A$30</definedName>
+    <definedName name="OLE_LINK1" localSheetId="1">'Реестр рисков'!#REF!</definedName>
+    <definedName name="Risk_Area">#REF!</definedName>
+    <definedName name="RiskType">#REF!</definedName>
     <definedName name="Высокий">#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Реестр рисков'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Реестр рисков'!$A$1:$M$30</definedName>
     <definedName name="ТипРиска">#REF!</definedName>
-    <definedName name="as">[1]DropDown_Elements!$A$2:$A$30</definedName>
-    <definedName name="OLE_LINK1" localSheetId="1">'Реестр рисков'!#REF!</definedName>
-    <definedName name="Risk_Area">#REF!</definedName>
-    <definedName name="RiskType">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,12 +39,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0" shapeId="0">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -75,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -101,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0" shapeId="0">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -127,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -153,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -179,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0" shapeId="0">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -205,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0">
+    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -231,7 +226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0">
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -257,7 +252,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0" shapeId="0">
+    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
@@ -283,7 +278,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L4" authorId="0" shapeId="0">
+    <comment ref="L4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -309,7 +304,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M4" authorId="0" shapeId="0">
+    <comment ref="M4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -340,7 +335,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="137">
   <si>
     <t>ID</t>
   </si>
@@ -534,22 +529,7 @@
     <t>Низкая</t>
   </si>
   <si>
-    <t>Разработчик Василий Иванов может не достаточно хоршо документировать код (как это было на предыдущем проекте).</t>
-  </si>
-  <si>
-    <t>Команда</t>
-  </si>
-  <si>
-    <t>Члены команды, работающие с модулями созданными Василием будут затрачивать болоьше усилий и времени</t>
-  </si>
-  <si>
-    <t>Поступает жалоба от разработчиков на плохую документированность кода Василия Иванова</t>
-  </si>
-  <si>
     <t>Смягчение</t>
-  </si>
-  <si>
-    <t>Начальник отдела разработки проведет инструктаж и импровизированный тренинг (0,5 - 1 день) до запуска проекта для Василия Иванова</t>
   </si>
   <si>
     <t>План А
@@ -560,21 +540,6 @@
 (management plan)</t>
   </si>
   <si>
-    <t>st-14 &lt;(Начальник отдела)&gt;</t>
-  </si>
-  <si>
-    <t>Даем в пару Василию Иванову более опытного члена команды (для проверки документирования кода)</t>
-  </si>
-  <si>
-    <t>Возможен переезд филиала нашей компании, что приведет к бездействию серверов в течение 2 дней</t>
-  </si>
-  <si>
-    <t>Тестирование некоторых модулей станет невозможным в течение 2 дней</t>
-  </si>
-  <si>
-    <t>Инфраструктура</t>
-  </si>
-  <si>
     <t>План А (contingency plan)</t>
   </si>
   <si>
@@ -582,16 +547,220 @@
   </si>
   <si>
     <t>Условия для запуска действий по плану Б (одновременно - признак того, что риск реализовался)</t>
+  </si>
+  <si>
+    <t>Средняя</t>
+  </si>
+  <si>
+    <t>Изменение/нестабильность API Telegram Bot API, приводящее к неработоспособности коннектора.</t>
+  </si>
+  <si>
+    <t>Задержка разработки, необходимость переписывания модуля. Невозможность сбора данных из Telegram.</t>
+  </si>
+  <si>
+    <t>Интеграция</t>
+  </si>
+  <si>
+    <t>Регулярный мониторинг changelog Telegram Bot API. Использование абстракции в коде коннектора для легкой замены клиента.</t>
+  </si>
+  <si>
+    <t>Официальное объявление об изменениях API или падение интеграционных тестов коннектора.</t>
+  </si>
+  <si>
+    <t>Лысин К.С.</t>
+  </si>
+  <si>
+    <t>Переход на использование MTProto API (более стабильный, но сложный) или отказ от Telegram как обязательного источника на этапе MVP.</t>
+  </si>
+  <si>
+    <t>Высокое</t>
+  </si>
+  <si>
+    <t>Академическая нагрузка (сессия, другие проекты) участников превышает ожидаемую, приводя к срыву внутренних дедлайнов и риску не успеть к защите ВКР.</t>
+  </si>
+  <si>
+    <t>Срыв ключевых вех проекта, низкое качество финального продукта из-за спешки, провал защиты.</t>
+  </si>
+  <si>
+    <t>Время / Сроки</t>
+  </si>
+  <si>
+    <t>Составление реалистичного графика с учетом учебного расписания. Еженедельный мониторинг прогресса и нагрузки. Приоритизация задач по методу MoSCoW.</t>
+  </si>
+  <si>
+    <t>Отставание от плана на 2 недели подряд. Жалобы участников на невозможность выполнять задачи в срок.</t>
+  </si>
+  <si>
+    <t>Пересмотр и упрощение scope проекта (согласование с научным руководителем). Фокус на обязательных для защиты модулях (Moscow). Привлечение дополнительного времени за счет управленческого резерва (личного).</t>
+  </si>
+  <si>
+    <t>Выбранный LLM-провайдер (OpenAI, Yandex GPT и т.д.) изменяет тарифы, ограничивает бесплатный доступ или API, делая интеграцию невозможной в рамках бесплатного/учебного бюджета.</t>
+  </si>
+  <si>
+    <t>Необходимость срочного поиска и интеграции альтернативы. Потеря времени. Риск невыполнения требований ТЗ по точности классификации.</t>
+  </si>
+  <si>
+    <t>Технологии / LLM</t>
+  </si>
+  <si>
+    <t>Исследование и тестирование нескольких LLM-провайдеров на старте (OpenAI, открытые модели через Hugging Face, Yandex GPT). Использование абстракционного слоя для вызова LLM.</t>
+  </si>
+  <si>
+    <t>Официальное уведомление об изменении тарифов или отключение API-ключа.</t>
+  </si>
+  <si>
+    <t>Перенос</t>
+  </si>
+  <si>
+    <t>Быстрое переключение на запасного провайдера (например, локальный запуск модели Mixtral через Ollama). Согласование с научруком изменения требований к точности.</t>
+  </si>
+  <si>
+    <t>Невозможность реализации ключевой функциональности (сбор данных). Проект теряет основную ценность.</t>
+  </si>
+  <si>
+    <t>Тщательное изучение требований Google Cloud Console к типам приложений (Internal/External). Создание приложения заранее и прохождение верификации до начала активной разработки коннекторов. Использование тестовых аккаунтов.</t>
+  </si>
+  <si>
+    <t>Получение официального отказа от Google или технической ошибки "access denied" при запросе scope.</t>
+  </si>
+  <si>
+    <t>Сложность разработки, отладки и достижения нативного UX в React Native приложении для iOS/Android из-за недостаточного опыта основного разработчика (Лысин К.С.) в этой технологии.</t>
+  </si>
+  <si>
+    <t>Задержка в разработке фронтенда. Плохой пользовательский опыт в финальном продукте. Низкие оценки на защите.</t>
+  </si>
+  <si>
+    <t>Квалификация</t>
+  </si>
+  <si>
+    <t>Выделение времени на обучение (курсы, документация) до начала активной разработки. Активное привлечение консультанта по UI/UX (Полях Е.С.) на этапе проектирования и тестирования. Использование готовых UI-библиотек (например, React Native Paper).</t>
+  </si>
+  <si>
+    <t>Задачи по фронтенду регулярно срывают оценки по срокам. Прототип имеет критичные баги или лаги.</t>
+  </si>
+  <si>
+    <t>Упрощение интерфейса (переход к более простому, но работающему UI). Рассмотрение возможности использовать кроссплатформенный фреймворк с более низким порогом входа (Flutter) на ранней стадии (маловероятно).</t>
+  </si>
+  <si>
+    <t>Сложность интеграции независимо разрабатываемых модулей (коннекторы на C#, LLM-обработчик на Python, сервис агрегации) из-за ошибок в проектировании API или асинхронного взаимодействия.</t>
+  </si>
+  <si>
+    <t>Невозможность собрать работающую систему. Много времени уходит на исправление межмодульного взаимодействия вместо реализации функционала.</t>
+  </si>
+  <si>
+    <t>Архитектура</t>
+  </si>
+  <si>
+    <t>Ранняя разработка и утверждение контрактов API (OpenAPI для REST, .proto для gRPC) между модулями. Использование контрактного тестирования (Pact). Регулярные (раз в 2 недели) интеграционные сборки.</t>
+  </si>
+  <si>
+    <t>Интеграционные тесты не проходят. Разработчики модулей не могут договориться о формате данных.</t>
+  </si>
+  <si>
+    <t>Срочный пересмотр архитектуры с упрощением (например, отказ от асинхронной очереди в пользу синхронных вызовов на первом этапе). Централизация координации разработки на одном человеке.</t>
+  </si>
+  <si>
+    <t>Превышение лимитов бесплатных квот на Yandex Cloud (вычислительные ресурсы, базы данных, трафик), ведущее к остановке тестового окружения или неожиданным расходам.</t>
+  </si>
+  <si>
+    <t>Остановка разработки и тестирования. Необходимость срочно искать финансирование или альтернативу, что отнимает время.</t>
+  </si>
+  <si>
+    <t>Ресурсы</t>
+  </si>
+  <si>
+    <t>Регулярный мониторинг потребления ресурсов в кабинете Yandex Cloud. Настройка алертов при достижении 70% лимита. Оптимизация использования ресурсов (остановка неиспользуемых ВМ, использование менее мощных инстансов).</t>
+  </si>
+  <si>
+    <t>Получение уведомления от Yandex Cloud о превышении квоты или отключение сервиса.</t>
+  </si>
+  <si>
+    <t>Иванов М.Р.</t>
+  </si>
+  <si>
+    <t>Научный руководитель (С.А. Виденин) или академический руководитель (Н.А. Павлочев) недоступен для своевременного согласования ключевых решений (архитектура, изменения в ТЗ).</t>
+  </si>
+  <si>
+    <t>Блокировка разработки на этапах, требующих утверждения. Задержка проекта.</t>
+  </si>
+  <si>
+    <t>Внешние зависимости</t>
+  </si>
+  <si>
+    <t>Четкое планирование встреч и запросов на согласование заранее, с указанием дедлайнов. Использование письменной формы (email) для фиксации вопросов и получения формального ответа. Создание промежуточных версий документов для обсуждения.</t>
+  </si>
+  <si>
+    <t>Отсутствие ответа на запрос о согласовании в течение 7 рабочих дней.</t>
+  </si>
+  <si>
+    <t>Принятие</t>
+  </si>
+  <si>
+    <t>Принятие решения командой проекта с фиксацией риска и уведомлением руководителя о вынужденном шаге. Действие в рамках согласованного ранее общего видения и Устава.</t>
+  </si>
+  <si>
+    <t>Недостаточное покрытие кода модулей unit- и интеграционными тестами из-за нехватки времени или опыта, что приводит к скрытым ошибкам, выявляемым на поздних стадиях.</t>
+  </si>
+  <si>
+    <t>Резкое увеличение времени на стабилизацию продукта перед сдачей. Низкая надежность демонстрации на защите.</t>
+  </si>
+  <si>
+    <t>Качество</t>
+  </si>
+  <si>
+    <t>Внедрение принципа "тесты вместе с кодом" в Definition of Done. Использование CI/CD (GitHub Actions) для автоматического прогона тестов. Проведение регулярных (раз в спринт) сессий парного программирования для написания тестов.</t>
+  </si>
+  <si>
+    <t>Обнаружение критического бага в модуле, который считался готовым. Резкий рост времени на отладку.</t>
+  </si>
+  <si>
+    <t>Выделение отдельного спринта (или части спринта) исключительно на "стабилизацию" и написание критически важных тестов. Фокус на тестирование ключевых сценариев (happy path).</t>
+  </si>
+  <si>
+    <t>Ошибка в реализации или настройке безопасности, приводящая к утечке или некорректному хранению OAuth-токенов пользователей, что создает риск компрометации их аккаунтов.</t>
+  </si>
+  <si>
+    <t>Потеря доверия, юридические риски (если используются реальные аккаунты), провал защиты как проекта, нарушающего базовые принципы безопасности.</t>
+  </si>
+  <si>
+    <t>Данные / Безопасность</t>
+  </si>
+  <si>
+    <t>Следование best practices для работы с OAuth 2.0 (использование проверенных библиотек, шифрование токенов при хранении, минимальные scope). Проведение security review кода ответственным за инфраструктуру (Иванов М.Р.) на ранних этапах.</t>
+  </si>
+  <si>
+    <t>Обнаружение уязвимости сканером безопасности или получение сообщения о подозрительной активности.</t>
+  </si>
+  <si>
+    <t>Немедленный вывод системы из эксплуатации (остановка серверов). Сброс всех выданных токенов. Уведомление научного руководителя и тестовых пользователей. Глубокий аудит и переработка модуля безопасности.</t>
+  </si>
+  <si>
+    <t>Предотвращени</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Сложность получения или неожиданный отказ в верификации OAuth 2.0 приложения для доступа к данным пользователя Gmail/Calendar из-за ужесточения политик безопасности Google.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Использование альтернативных методов доступа (например, IMAP для почты, если доступен). Акцент на других источниках данных (Telegram, локальный календарь). Согласование изменения scope</t>
+  </si>
+  <si>
+    <t>Использование альтернативных бесплатных хостингов (Render, Railway, Fly.io) для некритичных сервисов. Обращение к научному руководителю за помощью в получении образовательного гранта или квоты.</t>
+  </si>
+  <si>
+    <t>Personage</t>
+  </si>
+  <si>
+    <t>Лысин Кирилл Сергеевич</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="185" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -601,41 +770,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color indexed="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -657,13 +791,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <i/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -679,16 +806,30 @@
       <charset val="204"/>
     </font>
     <font>
-      <i/>
+      <sz val="11"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <sz val="8"/>
+      <color indexed="9"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="14"/>
+      <color indexed="9"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1123,221 +1264,208 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1457,7 +1585,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Instructions"/>
@@ -1570,9 +1698,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1610,9 +1738,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1645,9 +1773,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1680,9 +1825,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1855,138 +2017,138 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.17578125" defaultRowHeight="12.7" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="47"/>
-    <col min="2" max="2" width="17.5" style="47" customWidth="1"/>
-    <col min="3" max="3" width="55.83203125" style="47" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="47"/>
+    <col min="1" max="1" width="9.17578125" style="2"/>
+    <col min="2" max="2" width="17.46875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="55.8203125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.17578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B2" s="46" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B2" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B3" s="46"/>
-    </row>
-    <row r="4" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="48" t="s">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="B5" s="49" t="s">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="42" x14ac:dyDescent="0.15">
-      <c r="B6" s="49" t="s">
+    <row r="6" spans="2:3" ht="38" x14ac:dyDescent="0.4">
+      <c r="B6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="28" x14ac:dyDescent="0.15">
-      <c r="B7" s="49" t="s">
+    <row r="7" spans="2:3" ht="25.35" x14ac:dyDescent="0.4">
+      <c r="B7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="28" x14ac:dyDescent="0.15">
-      <c r="B8" s="49" t="s">
+    <row r="8" spans="2:3" ht="25.35" x14ac:dyDescent="0.4">
+      <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="42" x14ac:dyDescent="0.15">
-      <c r="B9" s="49" t="s">
+    <row r="9" spans="2:3" ht="38" x14ac:dyDescent="0.4">
+      <c r="B9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="B10" s="49" t="s">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="B11" s="49" t="s">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="B12" s="50" t="s">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B12" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="28" x14ac:dyDescent="0.15">
-      <c r="B13" s="77" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="50" t="s">
+    <row r="13" spans="2:3" ht="25.35" x14ac:dyDescent="0.4">
+      <c r="B13" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="28" x14ac:dyDescent="0.15">
-      <c r="B14" s="50" t="s">
+    <row r="14" spans="2:3" ht="25.35" x14ac:dyDescent="0.4">
+      <c r="B14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="77" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" ht="42" x14ac:dyDescent="0.15">
-      <c r="B15" s="50" t="s">
+      <c r="C14" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="38" x14ac:dyDescent="0.4">
+      <c r="B15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="28" x14ac:dyDescent="0.15">
-      <c r="B16" s="50" t="s">
+    <row r="16" spans="2:3" ht="25.35" x14ac:dyDescent="0.4">
+      <c r="B16" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="28" x14ac:dyDescent="0.15">
-      <c r="B17" s="77" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="50" t="s">
+    <row r="17" spans="2:3" ht="25.35" x14ac:dyDescent="0.4">
+      <c r="B17" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2000,73 +2162,73 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.17578125" defaultRowHeight="12.7" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6" style="5" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="8.5" style="6" customWidth="1"/>
-    <col min="6" max="7" width="34" style="25" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" style="25" customWidth="1"/>
-    <col min="9" max="9" width="30.83203125" style="25" customWidth="1"/>
-    <col min="10" max="10" width="24.6640625" style="25" customWidth="1"/>
-    <col min="11" max="11" width="12.5" style="25" customWidth="1"/>
-    <col min="12" max="12" width="11" style="25" customWidth="1"/>
-    <col min="13" max="13" width="27.5" style="25" customWidth="1"/>
-    <col min="14" max="14" width="9.1640625" style="4"/>
-    <col min="15" max="15" width="6" style="4" customWidth="1"/>
-    <col min="16" max="16384" width="9.1640625" style="4"/>
+    <col min="1" max="1" width="6" style="59" customWidth="1"/>
+    <col min="2" max="2" width="7.8203125" style="60" customWidth="1"/>
+    <col min="3" max="3" width="10.46875" style="60" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.46875" style="60" customWidth="1"/>
+    <col min="5" max="5" width="8.46875" style="60" customWidth="1"/>
+    <col min="6" max="7" width="34" style="61" customWidth="1"/>
+    <col min="8" max="8" width="14.64453125" style="61" customWidth="1"/>
+    <col min="9" max="9" width="30.8203125" style="61" customWidth="1"/>
+    <col min="10" max="10" width="24.64453125" style="61" customWidth="1"/>
+    <col min="11" max="11" width="12.46875" style="61" customWidth="1"/>
+    <col min="12" max="12" width="11" style="61" customWidth="1"/>
+    <col min="13" max="13" width="27.46875" style="61" customWidth="1"/>
+    <col min="14" max="14" width="9.17578125" style="46"/>
+    <col min="15" max="15" width="6" style="46" customWidth="1"/>
+    <col min="16" max="16384" width="9.17578125" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="7" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:21" s="21" customFormat="1" ht="17.7" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="2" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-    </row>
-    <row r="2" spans="1:21" s="1" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="J1" s="19"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+    </row>
+    <row r="2" spans="1:21" s="34" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="75" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="70"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="32"/>
       <c r="N2" s="33"/>
       <c r="O2" s="33"/>
       <c r="P2" s="33"/>
@@ -2076,28 +2238,28 @@
       <c r="T2" s="33"/>
       <c r="U2" s="33"/>
     </row>
-    <row r="3" spans="1:21" s="1" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:21" s="34" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="75" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="71"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="66"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="32"/>
       <c r="N3" s="33"/>
       <c r="O3" s="33"/>
       <c r="P3" s="33"/>
@@ -2107,603 +2269,807 @@
       <c r="T3" s="33"/>
       <c r="U3" s="33"/>
     </row>
-    <row r="4" spans="1:21" s="3" customFormat="1" ht="25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:21" s="40" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="51" t="s">
+      <c r="H4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="26" t="s">
+      <c r="I4" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="66" t="s">
         <v>43</v>
       </c>
       <c r="K4" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="L4" s="57" t="s">
+      <c r="L4" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="M4" s="32" t="s">
+      <c r="M4" s="71" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="41.35" x14ac:dyDescent="0.4">
+      <c r="A5" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="42" t="str">
+        <f>IF(OR(AND(B5&lt;&gt;"Закрыт",C5="Высокое",D5="Высокая"),AND(B5&lt;&gt;"Закрыт",C5="Высокое",D5="Средняя"),AND(B5&lt;&gt;"Закрыт",C5="Среднее",D5="Высокая")),"Красный",IF(OR(AND(B5&lt;&gt;"Закрыт",C5="Высокое",D5="Низкая"),AND(B5&lt;&gt;"Закрыт",C5="Среднее",D5="Средняя"),AND(B5&lt;&gt;"Закрыт",C5="Низкое",D5="Высокая")),"Желтый",IF(OR(AND(B5&lt;&gt;"Закрыт",C5="Среднее",D5="Низкая"),AND(B5&lt;&gt;"Закрыт",C5="Низкое",D5="Низкая"),AND(B5&lt;&gt;"Закрыт",C5="Низкое",D5="Средняя")),"Зеленый",IF(B5="Закрыт","Закрыт",""))))</f>
+        <v>Желтый</v>
+      </c>
+      <c r="F5" s="43" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" ht="48" x14ac:dyDescent="0.15">
-      <c r="A5" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="64" t="str">
-        <f>IF(OR(AND(B5&lt;&gt;"Закрыт",C5="Высокое",D5="Высокая"),AND(B5&lt;&gt;"Закрыт",C5="Высокое",D5="Средняя"),AND(B5&lt;&gt;"Закрыт",C5="Среднее",D5="Высокая")),"Красный",IF(OR(AND(B5&lt;&gt;"Закрыт",C5="Высокое",D5="Низкая"),AND(B5&lt;&gt;"Закрыт",C5="Среднее",D5="Средняя"),AND(B5&lt;&gt;"Закрыт",C5="Низкое",D5="Высокая")),"Желтый",IF(OR(AND(B5&lt;&gt;"Закрыт",C5="Среднее",D5="Низкая"),AND(B5&lt;&gt;"Закрыт",C5="Низкое",D5="Низкая"),AND(B5&lt;&gt;"Закрыт",C5="Низкое",D5="Средняя")),"Зеленый",IF(B5="Закрыт","Закрыт",""))))</f>
-        <v>Красный</v>
-      </c>
-      <c r="F5" s="56" t="s">
+      <c r="G5" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="63" t="s">
-        <v>64</v>
-      </c>
-      <c r="I5" s="72" t="s">
-        <v>68</v>
-      </c>
-      <c r="J5" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="K5" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="L5" s="73" t="s">
-        <v>71</v>
-      </c>
-      <c r="M5" s="74" t="s">
-        <v>72</v>
-      </c>
-      <c r="O5" s="4" t="str">
+      <c r="L5" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" s="46" t="str">
         <f>IF(OR(AND(B5&lt;&gt;"Closed",C5="High",E5="High"), AND(B5&lt;&gt;"Closed",C5="High", E5="Medium"),AND(B5&lt;&gt;"Closed",C5="Medium",E5="High")),"Red",IF(OR(AND(B5&lt;&gt;"Closed",C5="High",E5="Low"), AND(B5&lt;&gt;"Closed",C5="Medium", E5="Medium"),AND(B5&lt;&gt;"Closed",C5="Low",E5="High")),"Yellow",IF(OR(AND(B5&lt;&gt;"Closed",C5="Medium",E5="Low"), AND(B5&lt;&gt;"Closed",C5="Low", E5="Low"),AND(B5&lt;&gt;"Closed",C5="Low",E5="Medium")),"Green","")))</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="28" x14ac:dyDescent="0.15">
-      <c r="A6" s="39" t="s">
+    <row r="6" spans="1:21" ht="72.349999999999994" x14ac:dyDescent="0.4">
+      <c r="A6" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="42" t="str">
+        <f>IF(OR(AND(B6&lt;&gt;"Закрыт",C6="Высокое",D6="Высокая"),AND(B6&lt;&gt;"Закрыт",C6="Высокое",D6="Средняя"),AND(B6&lt;&gt;"Закрыт",C6="Среднее",D6="Высокая")),"Красный",IF(OR(AND(B6&lt;&gt;"Закрыт",C6="Высокое",D6="Низкая"),AND(B6&lt;&gt;"Закрыт",C6="Среднее",D6="Средняя"),AND(B6&lt;&gt;"Закрыт",C6="Низкое",D6="Высокая")),"Желтый",IF(OR(AND(B6&lt;&gt;"Закрыт",C6="Среднее",D6="Низкая"),AND(B6&lt;&gt;"Закрыт",C6="Низкое",D6="Низкая"),AND(B6&lt;&gt;"Закрыт",C6="Низкое",D6="Средняя")),"Зеленый",IF(B6="Закрыт","Закрыт",""))))</f>
+        <v>Красный</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="51.7" x14ac:dyDescent="0.4">
+      <c r="A7" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="42" t="str">
+        <f t="shared" ref="E7:E32" si="0">IF(OR(AND(B7&lt;&gt;"Закрыт",C7="Высокое",D7="Высокая"),AND(B7&lt;&gt;"Закрыт",C7="Высокое",D7="Средняя"),AND(B7&lt;&gt;"Закрыт",C7="Среднее",D7="Высокая")),"Красный",IF(OR(AND(B7&lt;&gt;"Закрыт",C7="Высокое",D7="Низкая"),AND(B7&lt;&gt;"Закрыт",C7="Среднее",D7="Средняя"),AND(B7&lt;&gt;"Закрыт",C7="Низкое",D7="Высокая")),"Желтый",IF(OR(AND(B7&lt;&gt;"Закрыт",C7="Среднее",D7="Низкая"),AND(B7&lt;&gt;"Закрыт",C7="Низкое",D7="Низкая"),AND(B7&lt;&gt;"Закрыт",C7="Низкое",D7="Средняя")),"Зеленый",IF(B7="Закрыт","Закрыт",""))))</f>
+        <v>Красный</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="62" x14ac:dyDescent="0.4">
+      <c r="A8" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D8" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="64" t="str">
-        <f>IF(OR(AND(B6&lt;&gt;"Закрыт",C6="Высокое",D6="Высокая"),AND(B6&lt;&gt;"Закрыт",C6="Высокое",D6="Средняя"),AND(B6&lt;&gt;"Закрыт",C6="Среднее",D6="Высокая")),"Красный",IF(OR(AND(B6&lt;&gt;"Закрыт",C6="Высокое",D6="Низкая"),AND(B6&lt;&gt;"Закрыт",C6="Среднее",D6="Средняя"),AND(B6&lt;&gt;"Закрыт",C6="Низкое",D6="Высокая")),"Желтый",IF(OR(AND(B6&lt;&gt;"Закрыт",C6="Среднее",D6="Низкая"),AND(B6&lt;&gt;"Закрыт",C6="Низкое",D6="Низкая"),AND(B6&lt;&gt;"Закрыт",C6="Низкое",D6="Средняя")),"Зеленый",IF(B6="Закрыт","Закрыт",""))))</f>
+      <c r="E8" s="42" t="str">
+        <f t="shared" si="0"/>
         <v>Зеленый</v>
       </c>
-      <c r="F6" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="76" t="s">
+      <c r="F8" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="L8" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="18"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A7" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="18"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A8" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="19"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A9" s="39" t="s">
+      <c r="M8" s="72" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="72.349999999999994" x14ac:dyDescent="0.4">
+      <c r="A9" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="64" t="str">
-        <f>IF(OR(AND(B9&lt;&gt;"Закрыт",C9="Высокое",D9="Высокая"),AND(B9&lt;&gt;"Закрыт",C9="Высокое",D9="Средняя"),AND(B9&lt;&gt;"Закрыт",C9="Среднее",D9="Высокая")),"Красный",IF(OR(AND(B9&lt;&gt;"Закрыт",C9="Высокое",D9="Низкая"),AND(B9&lt;&gt;"Закрыт",C9="Среднее",D9="Средняя"),AND(B9&lt;&gt;"Закрыт",C9="Низкое",D9="Высокая")),"Желтый",IF(OR(AND(B9&lt;&gt;"Закрыт",C9="Среднее",D9="Низкая"),AND(B9&lt;&gt;"Закрыт",C9="Низкое",D9="Низкая"),AND(B9&lt;&gt;"Закрыт",C9="Низкое",D9="Средняя")),"Зеленый",IF(B9="Закрыт","Закрыт",""))))</f>
-        <v/>
-      </c>
-      <c r="F9" s="56"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="21"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A10" s="39" t="s">
+      <c r="B9" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="42" t="str">
+        <f t="shared" si="0"/>
+        <v>Красный</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" s="48" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="62" x14ac:dyDescent="0.4">
+      <c r="A10" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="64" t="str">
-        <f>IF(OR(AND(B10&lt;&gt;"Закрыт",C10="Высокое",D10="Высокая"),AND(B10&lt;&gt;"Закрыт",C10="Высокое",D10="Средняя"),AND(B10&lt;&gt;"Закрыт",C10="Среднее",D10="Высокая")),"Красный",IF(OR(AND(B10&lt;&gt;"Закрыт",C10="Высокое",D10="Низкая"),AND(B10&lt;&gt;"Закрыт",C10="Среднее",D10="Средняя"),AND(B10&lt;&gt;"Закрыт",C10="Низкое",D10="Высокая")),"Желтый",IF(OR(AND(B10&lt;&gt;"Закрыт",C10="Среднее",D10="Низкая"),AND(B10&lt;&gt;"Закрыт",C10="Низкое",D10="Низкая"),AND(B10&lt;&gt;"Закрыт",C10="Низкое",D10="Средняя")),"Зеленый",IF(B10="Закрыт","Закрыт",""))))</f>
-        <v/>
-      </c>
-      <c r="F10" s="56"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="22"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A11" s="39" t="s">
+      <c r="B10" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="42" t="str">
+        <f t="shared" si="0"/>
+        <v>Красный</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" s="49" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="62" x14ac:dyDescent="0.4">
+      <c r="A11" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="31" t="str">
-        <f t="shared" ref="E11:E30" si="0">IF(OR(AND(B11&lt;&gt;"Закрыт",C11="Высокое",D11="Высокая"),AND(B11&lt;&gt;"Закрыт",C11="Высокое",D11="Средняя"),AND(B11&lt;&gt;"Закрыт",C11="Среднее",D11="Высокая")),"Красный",IF(OR(AND(B11&lt;&gt;"Закрыт",C11="Высокое",D11="Низкая"),AND(B11&lt;&gt;"Закрыт",C11="Среднее",D11="Средняя"),AND(B11&lt;&gt;"Закрыт",C11="Низкое",D11="Высокая")),"Желтый",IF(OR(AND(B11&lt;&gt;"Закрыт",C11="Среднее",D11="Низкая"),AND(B11&lt;&gt;"Закрыт",C11="Низкое",D11="Низкая"),AND(B11&lt;&gt;"Закрыт",C11="Низкое",D11="Средняя")),"Зеленый",IF(B11="Закрыт","Закрыт",""))))</f>
-        <v/>
-      </c>
-      <c r="F11" s="56"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="22"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A12" s="39" t="s">
+      <c r="B11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="42" t="str">
+        <f t="shared" si="0"/>
+        <v>Желтый</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" s="49" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="72.349999999999994" x14ac:dyDescent="0.65">
+      <c r="A12" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="31" t="str">
+      <c r="B12" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="42" t="str">
+        <f t="shared" si="0"/>
+        <v>Зеленый</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="M12" s="49" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="62" x14ac:dyDescent="0.4">
+      <c r="A13" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="42" t="str">
+        <f t="shared" si="0"/>
+        <v>Красный</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="M13" s="49" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="72.349999999999994" x14ac:dyDescent="0.4">
+      <c r="A14" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="42" t="str">
+        <f t="shared" si="0"/>
+        <v>Желтый</v>
+      </c>
+      <c r="F14" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="M14" s="49" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A15" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F12" s="56"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="22"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A13" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="31" t="str">
+      <c r="F15" s="50"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="49"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A16" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F13" s="56"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="22"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A14" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="31" t="str">
+      <c r="F16" s="50"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="49"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A17" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F14" s="56"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="22"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A15" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="31" t="str">
+      <c r="F17" s="50"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="49"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A18" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="22"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A16" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="31" t="str">
+      <c r="F18" s="50"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="49"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A19" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="22"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="31" t="str">
+      <c r="F19" s="50"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="49"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A20" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="22"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="31" t="str">
+      <c r="F20" s="50"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="49"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A21" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="22"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="31" t="str">
+      <c r="F21" s="50"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="49"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A22" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="22"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="31" t="str">
+      <c r="F22" s="50"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="49"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A23" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="22"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A21" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="31" t="str">
+      <c r="F23" s="50"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="49"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A24" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="22"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A22" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="31" t="str">
+      <c r="F24" s="50"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="49"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A25" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="22"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A23" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="31" t="str">
+      <c r="F25" s="50"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="49"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A26" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="22"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A24" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="31" t="str">
+      <c r="F26" s="50"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="49"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A27" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="22"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A25" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="31" t="str">
+      <c r="F27" s="50"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="49"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A28" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="22"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A26" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="31" t="str">
+      <c r="F28" s="50"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="49"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A29" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="22"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A27" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="31" t="str">
+      <c r="F29" s="50"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="49"/>
+    </row>
+    <row r="30" spans="1:13" ht="13" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F27" s="20"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="22"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A28" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="31" t="str">
+      <c r="F30" s="54"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="58"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="E31" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F28" s="20"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="22"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A29" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="31" t="str">
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="E32" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F29" s="20"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="22"/>
-    </row>
-    <row r="30" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="54" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F30" s="23"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="24"/>
     </row>
   </sheetData>
-  <autoFilter ref="B4:D4"/>
+  <autoFilter ref="B4:D4" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C31:E65536 B4:C4 C1:E1">
+  <conditionalFormatting sqref="C33:E65536 B4:C4 C1:E1 C31:D32">
     <cfRule type="cellIs" dxfId="13" priority="18" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
@@ -2714,7 +3080,7 @@
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8:L30">
+  <conditionalFormatting sqref="L25:L30">
     <cfRule type="cellIs" dxfId="10" priority="21" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
@@ -2722,7 +3088,7 @@
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E30">
+  <conditionalFormatting sqref="E5:E32">
     <cfRule type="containsText" dxfId="8" priority="1" stopIfTrue="1" operator="containsText" text="Зеленый">
       <formula>NOT(ISERROR(SEARCH("Зеленый",E5)))</formula>
     </cfRule>
@@ -2755,28 +3121,28 @@
       <formula>NOT(ISERROR(SEARCH("Низкая",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L8:L30">
+  <dataValidations disablePrompts="1" count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L25:L30" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K30" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Использование,Предотвращени,Смягчение,Усиление,Перенос,Разделение,Принятие"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C30" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"Высокое,Среднее,Низкое"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D30" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>"Высокая,Средняя,Низкая"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B30" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>"Открыт,Закрыт"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L&amp;8Дата &amp;D&amp;C&amp;8Реестр рисков&amp;R&amp;8Страница &amp;P/&amp;N</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>